--- a/docs/设计文档/银行资金管理/整理/bank_list.xlsx
+++ b/docs/设计文档/银行资金管理/整理/bank_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22320" windowHeight="9765"/>
+    <workbookView windowHeight="18405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>id</t>
   </si>
@@ -45,19 +45,25 @@
     <t>中国人民银行</t>
   </si>
   <si>
+    <t>zgrmyh_bicon</t>
+  </si>
+  <si>
     <t>www.pbc.gov.cn/</t>
   </si>
   <si>
     <t>中国工商银行</t>
   </si>
   <si>
+    <t>zggsyh_bicon</t>
+  </si>
+  <si>
     <t>www.icbc.com.cn/icbc/</t>
   </si>
   <si>
     <t>中国农业银行</t>
   </si>
   <si>
-    <t>icon_nyyh</t>
+    <t>zgnyyh_bicon</t>
   </si>
   <si>
     <t>www.abchina.com/cn/</t>
@@ -66,7 +72,7 @@
     <t>中国银行</t>
   </si>
   <si>
-    <t>icon_zgyh</t>
+    <t>zgyh_bicon</t>
   </si>
   <si>
     <t>www.boc.cn/</t>
@@ -75,7 +81,7 @@
     <t>中国建设银行</t>
   </si>
   <si>
-    <t>icon_zgjsyh</t>
+    <t>zgjsyh_bicon</t>
   </si>
   <si>
     <t>www.ccb.com/cn/home/indexv3.html</t>
@@ -84,25 +90,34 @@
     <t>中信银行</t>
   </si>
   <si>
+    <t>zxyh_bicon</t>
+  </si>
+  <si>
     <t>www.citicbank.com/</t>
   </si>
   <si>
     <t>中国光大银行</t>
   </si>
   <si>
+    <t>zggdyh_bicon</t>
+  </si>
+  <si>
     <t>www.cebbank.com/</t>
   </si>
   <si>
     <t>中国农业发展银行</t>
   </si>
   <si>
+    <t>zgnyfzyh_bicon</t>
+  </si>
+  <si>
     <t>www.adbc.com.cn/</t>
   </si>
   <si>
     <t>中国民生银行</t>
   </si>
   <si>
-    <t>icon_msyh</t>
+    <t>zgmsyh_bicon</t>
   </si>
   <si>
     <t>www.cmbc.com.cn/</t>
@@ -111,7 +126,7 @@
     <t>招商银行</t>
   </si>
   <si>
-    <t>icon_zsyh</t>
+    <t>zsyh_bicon</t>
   </si>
   <si>
     <t>www.cmbchina.com/</t>
@@ -123,8 +138,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -133,6 +148,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,6 +172,58 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -151,42 +233,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,62 +264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,19 +278,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -295,37 +310,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,13 +460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,127 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,17 +506,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -522,17 +530,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,36 +587,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -591,148 +606,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,14 +1109,14 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1140,8 +1155,11 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1149,10 +1167,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1160,13 +1181,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1174,13 +1195,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1188,13 +1209,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1202,10 +1223,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1213,10 +1237,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1224,10 +1251,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1235,13 +1265,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1249,13 +1279,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
